--- a/groq/Ground Truth.xlsx
+++ b/groq/Ground Truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\York Yong\OneDrive - Singapore Management University\Desktop\Langchain Project\groq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9823FC7A-A2C8-4C07-BDE3-0B57520A0AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E664739-174D-4239-83DA-26033DB369F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{7AE171C3-BB6B-49AF-AAA6-424DB41A4190}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="385">
   <si>
     <t>Question</t>
   </si>
@@ -1437,6 +1437,157 @@
     <t>My young trainer! When it comes to catching Legendary Pokémon, I always recommend turning off Auto-Save in your game options. This will give you a chance to catch them again if you knock them out. If you want to save yourself some money on expensive Pokeballs, or you have a bad run, you can always restart without worrying about losing progress.
 Also, it's a good idea to make a Pokémon designed to catch other Pokémon, one that knows two moves specifically, False Swipe and a status effect move like Yawn, Hypnosis, or Thunder Wave. This can increase your chances of catching those Legendary Pokémon.
 Remember, it's all about strategy and patience when it comes to catching those elusive Legendaries!</t>
+  </si>
+  <si>
+    <t>mixtral-8x7b-32768 (GoogleGenAIEmbedding/session_state.docs (all))</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet, players can catch and ride Koraidon, while in Pokémon Violet, players can catch and ride Miraidon. These special mounts are unique to each version of the game.</t>
+  </si>
+  <si>
+    <t>The starting choices for Pokémon in Paldea are Fidough (a fairy-type Pokémon), Sprigatito (a grass-type Pokémon), and Fuecoco (a fire-type Pokémon). Scarlet version players will have the opportunity to catch and ride Koraidon, while Violet version players will be able to catch and ride Miraidon. Additionally, players can obtain Charcadet, the new fire-type Pokémon of this game, right after they finish talking to everyone in the school. It's recommended to consider how you might want to build your team, since you will probably want some Pokémon with fire, water, electric, etc. types, especially since the first two gyms are weak to fire.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, fast travel is immediately unlocked at the beginning of the game, and all Pokemon Centers serve as fast travel locations. Additionally, Mysterious Towers can be unlocked as fast travel spots if you climb to the top of them. To battle other trainers, you need to talk to them now, instead of them approaching you like in past games. If you're unsure if you've battled a trainer or not, they will have a yellow text bubble over their head if you haven't fought them yet. Watchtowers are where you can find Gimmighoul's in their chest form and obtain many coins from them or catch one to eventually get yourself a Gholdengo.
+In response to your question, fast travel works by using the Pokemon Centers and unlocking Mysterious Towers as fast travel locations.</t>
+  </si>
+  <si>
+    <t>To initiate battles with other trainers in Pokémon Scarlet and Violet, you need to approach them and interact with them by pressing the "A" button. Unlike in past games, where trainers would battle you automatically as you crossed paths, in these games, you need to talk to them to start a battle. If you have not fought a trainer before, they will have a yellow text bubble over their head, and if you have already fought them, they will remain quiet. Battling other trainers is a good way to get rewards from the Pokémon representatives at the Pokémon Centers.</t>
+  </si>
+  <si>
+    <t>You can collect many coins from Gimmighoul's chest form in Watchtowers.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, items are visually represented or indicated in the game world through various methods. For instance, important items or keys that are required to progress in the game are often shown as glowing objects that the player needs to interact with. In addition, when exploring the overworld, players can find items such as Pokeballs, Potions, and other useful objects by searching specific locations or by defeating wild Pokémon. These items will be indicated on the screen, usually with a brief animation and a visual indicator, such as a sparkle or a small icon. Furthermore, the player's bag, where all collected items are stored, can be accessed at any time to check the current inventory.</t>
+  </si>
+  <si>
+    <t>Sandwiches in Pokémon Scarlet and Violet provide various benefits, such as:
+Increased encounter rates for certain Pokémon types.
+Increased chance of capturing Pokémon.
+More Exp. Points gained.
+More materials found after battles.
+More likelihood of finding Pokémon with titles.
+Increased chance of finding Shiny Pokémon.
+Increased chance of finding large Pokémon.
+Sandwich duration lasts for 30 minutes.
+These effects can be useful for various purposes, such as leveling up faster, increasing the chances of capturing specific Pokémon, or finding rare or shiny Pokémon. Additionally, when making a sandwich with a friend, both players can enjoy the benefits while using only half the ingredients.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, you can use the map effectively to avoid getting lost by using it to check your location and the locations of quest objectives or points of interest. You can also use it to set waypoints or markers to help you navigate to specific locations. Additionally, the map will show the terrain of the region, which can help you plan your route. It's also worth noting that the map will show the location of Pokémon, items, and other points of interest, which can be useful for filling out your Pokédex and gathering resources.</t>
+  </si>
+  <si>
+    <t>To level up your Pokémon quickly in Pokémon Scarlet and Violet, you may want to consider the following strategy:
+Catch a variety of Pokémon with types that cover each other's weaknesses. This will allow you to create a balanced team that can handle a wide range of opponents.
+Look for Pokémon with high base stat totals, as they will generally level up faster and have more potential for growth.
+Participate in Tera Raids, as they provide a good source of experience points and can also yield unique and powerful Pokémon.
+Grind against wild Pokémon in areas where you have a type advantage. This will make it easier to defeat wild Pokémon and earn experience points.
+Consider using items that boost experience gains, such as Rare Candies or the Experience Share held item.
+Try to fight trainers and complete missions given by NPCs as they also give a considerable amount of experience points.
+If you have the option, consider using the Exp. Charm which increases the amount of experience points your Pokémon earn by 50%.
+Finally, keep in mind that Pokémon level up faster earlier in the game, so it's a good idea to focus on leveling up your team as much as possible during the early stages of the game.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, the three main storylines or quests that you can accomplish are:
+The Path of Legends: This quest involves you hunting for Herba Mystica, powerful plants that can heal the Titan Pokémon who are causing trouble in the Paldea region.
+The Treasure Hunt: In this quest, you will need to find the scattered pieces of an ancient artifact called the Star Charm. This quest will take you to various locations in Paldea and will have you battle against strong trainers.
+The Victory Road: This is the classic Pokémon quest where you will need to challenge and defeat gym leaders to collect badges and become the champion of the region.
+You can do these quests in any order you like, and it is recommended to switch between them as you progress through the game. The game encourages exploration and allows you to go at your own pace.</t>
+  </si>
+  <si>
+    <t>By defeating the Titan Pokémon in the Path of Legends storyline of Pokémon Scarlet and Violet, you will unlock new abilities for your Miraidon or Koraidon that will make it easier to get around the world. Specifically, defeating Klawf, the first Titan Pokémon, will unlock the ability to dash on your mount Pokémon. Defeating all five Titan Pokémon is hugely important for making progress in the game.
+In addition to these abilities, defeating the Titan Pokémon also rewards you with valuable items and experience for your Pokémon. The specific rewards for defeating each Titan Pokémon can vary, but they may include items that are useful for evolving certain Pokémon or improving their abilities.
+It's worth noting that the Path of Legends storyline is separate from the main storyline of Pokémon Scarlet and Violet, which involves battling the game's professors and completing gym challenges. However, both storylines are important for progressing through the game and becoming a powerful Pokémon trainer.</t>
+  </si>
+  <si>
+    <t>Based on the information provided, the recommended level for fighting the first Titan, Klawf, is between levels 15-20.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, the battle mechanic with gym leaders remains mostly the same as in previous games. However, there is a new feature called Terastalization, which adds a strategic layer to the battles. When a Pokémon terastallizes, it becomes a particular type, which can be different from its original type. This can affect the strengths and weaknesses of the Pokémon in battle.
+In the context provided, it is mentioned that "you will find out pretty quickly that all the major fights in their game will end with the final pokemon the person throws out being terastalized." This suggests that gym leaders in Pokémon Scarlet and Violet will make use of this new feature, and players will need to consider the Tera type of the opponent's Pokémon when planning their moves and strategies.
+The given text suggests that the user should have a Pokémon with strong Flying, Poison, Dark, and Fairy moves on their team when battling specific trainers. The user is also advised to start the fight with a Flying-type Pokémon to take out a Slither Wing opponent, use Poison or Fairy moves on Scream Tail, and Dark moves on Flutter Mane. The user can also consider using Ground or Water moves on Sandy Shocks, and then finish Roaring Moon with a Fairy-type Pokémon. This strategy takes into account the strengths and weaknesses of the different Pokémon types and shows how the battle mechanic works in Pokémon Scarlet and Violet.</t>
+  </si>
+  <si>
+    <t>The challenge format for Starfall Street missions in Pokémon Scarlet and Violet is a 30/30 challenge. You send out your Pokémon to auto-battle by pressing R on the controller. You have to complete this challenge before you can challenge the team star fortresses. You will face 30 Pokémon in autobattles and you have 10 minutes to defeat them. It's important to make sure your top 3 Pokémon are well-matched against the type you are there to fight (Dark, Fire, Poison, Fairy or Fighting).</t>
+  </si>
+  <si>
+    <t>To capture and ride Koraidon in Pokémon Scarlet, you first need to progress through the game until you are able to encounter Koraidon. This will likely happen as part of the main story. Once you encounter Koraidon, you will have the opportunity to battle and catch it using Poké Balls. After capturing Koraidon, you will be able to ride it as a means of transportation.
+In Pokémon Violet, the process for capturing and riding Miraidon is similar. You will need to progress through the game until you are able to encounter Miraidon, then battle and catch it using Poké Balls. After capturing Miraidon, you will be able to ride it and use it as a means of transportation.
+It's important to note that you will not be able to capture and ride Koraidon in Pokémon Violet, or Miraidon in Pokémon Scarlet. Each version of the game has its own unique legendary Pokémon that you can capture and ride.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, breeding works similar to previous games in the series. To breed Pokémon, you need to take two compatible Pokémon to a Pokémon Nursery, which can be found in several locations in the game. The nursery is usually staffed by a breeding-related character, such as a Day Care Lady.
+To breed, you need to leave two Pokémon at the nursery. These Pokémon must be compatible for breeding, meaning they must be of opposite genders (unless one of them is a genderless Pokémon or a Ditto), and they must be able to produce offspring together. For example, a Pikachu and a Bulbasaur cannot breed together because they belong to different evolutionary lines.
+While the Pokémon are left at the nursery, they have a chance of producing an Egg. The Egg will hatch into a new Pokémon, which will inherit some of its characteristics from its parents. For example, the offspring may have a combination of the moves, abilities, and appearance of its parents.
+Breeding can be used to obtain specific Pokémon, moves, abilities, and other characteristics. It can also be used for obtaining certain evolutionary items, such as Eevee's evolutionary stones.
+Here are the basic steps for breeding in Pokémon Scarlet and Violet:
+Go to a Pokémon Nursery with two compatible Pokémon.
+Leave the Pokémon at the nursery.
+Wait for the Pokémon to produce an Egg (you may need to leave the nursery and come back later).
+Pick up the Egg and add it to your party.
+Hatch the Egg by walking a certain distance (the distance required varies depending on the Egg).
+Note that the exact details of breeding mechanics, such as the specific combinations of moves and abilities that can be inherited, may vary between different Pokémon games. It is recommended to consult a specific guide or resource for more information on breeding in Pokémon Scarlet and Violet.</t>
+  </si>
+  <si>
+    <t>The "Area Zero" mission in Pokémon Scarlet and Violet is significant because it is the final mission of the main game. In this mission, the player needs to enter Area Zero, which is located northwest of Medali. To do this, the player can climb up to a small gate or climb up and over the mountain.
+Once inside, the player will find their trio of friends preparing to enter Area Zero with the player's Legendary pokemon. The mission involves trekking deeper and deeper into Area Zero, discovering four Research stations along the way. At each Research Station, the player will need to fight a wild pokemon, with the help of their friends.
+The player can use the beds in the Research stations to heal their pokemon for free at any time, similar to a pokemon center. There is no map in this area, and the player must keep heading downward in a natural spiral-like pattern to find all the stations and eventually reach the crystal-like caverns, which is the final 4th station.
+Upon finding the last station, the player will discover that it is pretty destroyed, and things will seem suspicious with the professor. The player must continue down to the bottom and fight their way, with their friends, into the Area Zero Lab. Inside the Lab, the player will find out the truth about Arven's Mom/Dad.
+The player can pick up the Pokeball on the floor for an important item, the Boost Energy. The professor will explain that they would like the player to turn on the time machine, but if they do that, they will be forced to fight the player. The player can use a status effect move, like Yawn, Hypnosis, or Thunder Wave, to place the status effect on the professor and earn the TM False Swipe from Professor Jacq.
+Additionally, the player can catch a second Miraidon/Koraidon with their Master Ball. The games' mascot pokemon is nature and 'best' IV locked with Miraidon being modest nature and Koraidon being adamant. There are four legendaries besides Miraidon/Koraidon, and the player can gain access to them by freeing them from their prisons.
+To begin the journey into Area Zero, the player must defeat Arven in a fight to show him they can handle anything in the big scary crater. The recommended level for this mission is 63, and the player will face pokemon such as Greedent, Toedcruel, Garganacl, Scovillain, Cloyster, and Mabossti.</t>
+  </si>
+  <si>
+    <t>Eevee can evolve into several different forms using various methods. Here are the ways to evolve Eevee:
+Eevee + Fire Stone = Flareon
+Eevee + Water Stone = Vaporeon
+Eevee + Thunder Stone = Jolteon
+Eevee + Leaf Stone = Leafeon
+Eevee + Ice Stone = Glaceon
+Eevee + Thunder Stone + knowing a fairy-type move = Sylveon
+Eevee + friendship (daytime) = Espeon
+Eevee + friendship (nighttime) = Umbreon
+Note that for Sylveon, Eevee needs to know a fairy-type move and have high friendship. For Espeon and Umbreon, Eevee needs to have high friendship during specific times of the day.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, you can obtain additional LP (League Points) by participating in Tera Raids. Tera Raids are similar to Max Raid Battles where you can encounter and battle strong unique Pokémon. You will see a glowing crystal in the distance, or they will appear on your map. By defeating the Pokémon in the Tera Raid, you can earn LP and have a chance to catch the unique Pokémon.</t>
+  </si>
+  <si>
+    <t>To battle the Elite Four in Pokémon Scarlet and Violet, you'll want to have a variety of Pokémon types to cover each member's strengths and weaknesses. Here's a recommended team composition and strategy:
+Grass-type Pokémon: Rika, the first Elite Four member, specializes in Ground-type Pokémon. Grass is strong against Ground, so having a Grass-type Pokémon will be beneficial. Bring a Water-type move for Camerupt.
+Fire-type Pokémon: Poppy, the second Elite Four member, uses Steel-type Pokémon. Fire is strong against Steel, so a Fire-type Pokémon will be useful.
+Flying, Fairy, and/or Ghost-type Pokémon: The third Elite Four member has not been revealed, but based on the weaknesses of the potential types (Rock, Electric, Ice, Dragon, and Fairy), a Flying, Fairy, or Ghost-type Pokémon could be beneficial.
+Ice or Fairy-type Pokémon: The fourth Elite Four member specializes in Ice-type Pokémon. An Ice or Fairy-type Pokémon will be strong against Ice.
+Dark, Ghost, Electric, Fighting, Fire, Ground, or Water-type Pokémon: The Champion, Nemona, uses a variety of types. Having a Pokémon with coverage moves, like Ghost moves on a Dark-type or Fighting moves on a Dark-type, will be helpful.
+In general, having a diverse team with various types and moves will help you be prepared for any situation. Additionally, knowing each Pokémon's moves and abilities will be crucial in making strategic decisions during battle.</t>
+  </si>
+  <si>
+    <t>Tera Raid Battles in Pokémon Scarlet and Violet differ from regular battles in that they involve fighting against a powerful Pokémon protected by a Tera crystal. These raids can be found as glowing crystals in the distance or on your map, and they are a way to get more League Points (LP) and unique, strong Pokémon. Unlike regular battles, Tera Raid Battles can be played with up to three other players.</t>
+  </si>
+  <si>
+    <t>In Pokémon Scarlet and Violet, Gimmighoul Coins are used to interact with the ghost-type Pokémon, Gimmighoul, in its Chest Form. By collecting 999 Gimmighoul Coins, you can evolve Gimmighoul into Gholdengo. Additionally, Gimmighoul Coins can be exchanged for useful items or other rewards at certain locations in the game.</t>
+  </si>
+  <si>
+    <t>To obtain special items such as the Chipped Pot or Auspicious Armor in Pokémon Scarlet and Violet, you can follow these steps:
+Chipped Pot: You can find the Chipped Pot on the ground as a random drop while exploring the game world. It can be found among the many Pokeballs on the ground. Additionally, you can check the auctions in Port Marina, as special items like the Chipped Pot may be available for purchase.
+Auspicious Armor - Scarlet: To get the Auspicious Armor in Pokémon Scarlet, you need to gather 10 Bronzor Fragments in the desert where the Tinkatus are. Once you have 10 fragments, you can trade them with a nice gentleman in Zapicico, near where the Poison Team Star Member hangs out.
+Malicious Armor - Violet: The process for obtaining the Malicious Armor in Pokémon Violet is similar to the Auspicious Armor in Scarlet. You need to find 10 Sinistea and trade them with a woman in Zapicico. You can find Sinisteas around Tulips Psychic Gym in Alfornada.
+For special items like the Rotom catalog, you can check the auctions in Port Marina, as they update daily and may have the item you're looking for.
+These are the known methods for obtaining special items in Pokémon Scarlet and Violet. However, always be aware that new updates or methods may become available as more players explore the game.</t>
+  </si>
+  <si>
+    <t>The "Let's Go" feature in Pokémon affects the evolution of certain Pokémon by requiring you to walk a certain number of steps with them. When you walk with a Pokémon that has the "Let's Go" feature, it will count your steps and help you evolve the Pokémon once you have reached the required number of steps. For example, Pawmo will evolve into Pawmot after you have walked 1,000 steps with it. However, it is important to note that if the Pokémon returns to its ball or you are interrupted during your walk, it can reset your steps. To make it easier to track your steps, you can use a circle in a city like Levinicia that you can walk around like a track. If you walk the circle four times, you can be sure that you have walked 1000 steps.</t>
+  </si>
+  <si>
+    <t>To ensure a successful catch of a legendary Pokémon, follow these steps:
+Turn off Auto-save in your Options before fighting the legendary Pokémon.
+Save your game manually before the battle using a hard save.
+Make sure you have a Pokémon in your team with the move False Swipe and a status effect move like Yawn, Hypnosis, or Thunder Wave. You can learn False Swipe from Professor Jacq after your first biology class with him and having 30 pokemon in your pokedex.
+Weaken the legendary Pokémon to 1 HP using False Swipe. Avoid knocking it out.
+Use the status effect move to put the legendary Pokémon to sleep or paralyzed, making it easier to catch.
+Save your game again manually before attempting to catch the legendary Pokémon.
+Use your Master Ball or Ultra Balls to increase the chances of catching the legendary Pokémon.
+If you run out of balls or fail to catch it, you can restart the game using your manual save and try again.
+Remember that you can turn Auto-save back on when you're happy with your new legendary Pokémon.</t>
   </si>
 </sst>
 </file>
@@ -2773,10 +2924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E58583-5DF2-4E59-8414-52FD28F55557}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2785,10 +2936,11 @@
     <col min="2" max="2" width="83.44140625" customWidth="1"/>
     <col min="3" max="3" width="32.109375" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="55.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,8 +2956,11 @@
       <c r="E1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>202</v>
       </c>
@@ -2815,14 +2970,17 @@
       <c r="C2" t="s">
         <v>281</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>308</v>
       </c>
       <c r="E2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>204</v>
       </c>
@@ -2838,8 +2996,11 @@
       <c r="E3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>206</v>
       </c>
@@ -2855,8 +3016,11 @@
       <c r="E4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="10" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>208</v>
       </c>
@@ -2872,8 +3036,11 @@
       <c r="E5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>210</v>
       </c>
@@ -2886,11 +3053,14 @@
       <c r="D6" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>212</v>
       </c>
@@ -2900,14 +3070,17 @@
       <c r="C7" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>214</v>
       </c>
@@ -2917,14 +3090,17 @@
       <c r="C8" t="s">
         <v>288</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>216</v>
       </c>
@@ -2934,14 +3110,17 @@
       <c r="C9" t="s">
         <v>289</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" t="s">
         <v>315</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>218</v>
       </c>
@@ -2951,14 +3130,17 @@
       <c r="C10" t="s">
         <v>290</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>220</v>
       </c>
@@ -2968,14 +3150,17 @@
       <c r="C11" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" t="s">
         <v>317</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>222</v>
       </c>
@@ -2985,14 +3170,17 @@
       <c r="C12" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" t="s">
         <v>318</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>224</v>
       </c>
@@ -3002,14 +3190,17 @@
       <c r="C13" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
         <v>319</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>226</v>
       </c>
@@ -3019,14 +3210,17 @@
       <c r="C14" t="s">
         <v>294</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" t="s">
         <v>320</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>228</v>
       </c>
@@ -3036,14 +3230,17 @@
       <c r="C15" t="s">
         <v>295</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
         <v>321</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>230</v>
       </c>
@@ -3053,14 +3250,17 @@
       <c r="C16" t="s">
         <v>296</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" t="s">
         <v>322</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="10" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>232</v>
       </c>
@@ -3070,14 +3270,17 @@
       <c r="C17" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="10" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>234</v>
       </c>
@@ -3087,14 +3290,17 @@
       <c r="C18" t="s">
         <v>298</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
         <v>324</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="10" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>236</v>
       </c>
@@ -3104,14 +3310,17 @@
       <c r="C19" t="s">
         <v>299</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
         <v>325</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>238</v>
       </c>
@@ -3121,14 +3330,17 @@
       <c r="C20" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>326</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>240</v>
       </c>
@@ -3138,14 +3350,17 @@
       <c r="C21" t="s">
         <v>301</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>242</v>
       </c>
@@ -3155,14 +3370,17 @@
       <c r="C22" t="s">
         <v>302</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" t="s">
         <v>328</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>244</v>
       </c>
@@ -3172,14 +3390,17 @@
       <c r="C23" t="s">
         <v>303</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" t="s">
         <v>329</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="10" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>246</v>
       </c>
@@ -3189,14 +3410,17 @@
       <c r="C24" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" t="s">
         <v>330</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="10" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>248</v>
       </c>
@@ -3206,28 +3430,34 @@
       <c r="C25" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" t="s">
         <v>331</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>250</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>332</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" t="s">
         <v>358</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3375,26 +3605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6bf17a3-306d-4f2a-bba0-99e7b85e3677">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="214f8ab0-549d-4df5-81f2-beee32aabadd" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006F5BAF8C6A13AD41B5118FC82D8A13A4" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ba020e7e041558455245c459f3325a73">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f6bf17a3-306d-4f2a-bba0-99e7b85e3677" xmlns:ns3="214f8ab0-549d-4df5-81f2-beee32aabadd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f465b704001b6fbfc8aae2e4b82e3c1" ns2:_="" ns3:_="">
     <xsd:import namespace="f6bf17a3-306d-4f2a-bba0-99e7b85e3677"/>
@@ -3589,32 +3799,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7B6965-6908-4B55-99D7-79502BC67FA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="f6bf17a3-306d-4f2a-bba0-99e7b85e3677"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="214f8ab0-549d-4df5-81f2-beee32aabadd"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B0A5C9-AAFE-4F9E-BF78-CE5B5123B2E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f6bf17a3-306d-4f2a-bba0-99e7b85e3677">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="214f8ab0-549d-4df5-81f2-beee32aabadd" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C3E7384-1D4E-4FD4-8AEE-8F18977042BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3631,4 +3836,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B0A5C9-AAFE-4F9E-BF78-CE5B5123B2E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F7B6965-6908-4B55-99D7-79502BC67FA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="f6bf17a3-306d-4f2a-bba0-99e7b85e3677"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="214f8ab0-549d-4df5-81f2-beee32aabadd"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>